--- a/data/pca/factorExposure/factorExposure_2018-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02062324342225369</v>
+        <v>-0.02253234990483797</v>
       </c>
       <c r="C2">
-        <v>-0.01531218948069279</v>
+        <v>0.01740947344416601</v>
       </c>
       <c r="D2">
-        <v>0.01172613569482162</v>
+        <v>-0.02455952518119796</v>
       </c>
       <c r="E2">
-        <v>0.01660997005108173</v>
+        <v>-0.01340651516069406</v>
       </c>
       <c r="F2">
-        <v>-0.1103271760810973</v>
+        <v>0.01164734392218074</v>
       </c>
       <c r="G2">
-        <v>0.06288340826369687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05094880681223928</v>
+      </c>
+      <c r="H2">
+        <v>0.04764259213903139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09671977516130845</v>
+        <v>-0.08777690334489134</v>
       </c>
       <c r="C3">
-        <v>0.02624364083659599</v>
+        <v>-0.01556980687713326</v>
       </c>
       <c r="D3">
-        <v>0.08473556269172526</v>
+        <v>-0.04414529912356109</v>
       </c>
       <c r="E3">
-        <v>0.05114357333898133</v>
+        <v>-0.001698945819854774</v>
       </c>
       <c r="F3">
-        <v>-0.3821308797755777</v>
+        <v>0.005402694682538088</v>
       </c>
       <c r="G3">
-        <v>0.1615212176390735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1892238780903466</v>
+      </c>
+      <c r="H3">
+        <v>0.1643877672825652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03974378564479477</v>
+        <v>-0.04877227590056143</v>
       </c>
       <c r="C4">
-        <v>-0.007556617450361168</v>
+        <v>0.002478934262085849</v>
       </c>
       <c r="D4">
-        <v>-0.01804447410326862</v>
+        <v>-0.05234651941289655</v>
       </c>
       <c r="E4">
-        <v>-0.04731306980541178</v>
+        <v>0.02185985531355523</v>
       </c>
       <c r="F4">
-        <v>-0.07733994533193227</v>
+        <v>0.0559288696785228</v>
       </c>
       <c r="G4">
-        <v>0.05016304025885678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03047843810026009</v>
+      </c>
+      <c r="H4">
+        <v>0.05198822917081914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02215309229022612</v>
+        <v>-0.02975865535983942</v>
       </c>
       <c r="C6">
-        <v>-0.01177731927454279</v>
+        <v>0.0007095764202073955</v>
       </c>
       <c r="D6">
-        <v>0.007044286984308304</v>
+        <v>-0.0554619185468594</v>
       </c>
       <c r="E6">
-        <v>-0.01870962157954405</v>
+        <v>0.005593714878607135</v>
       </c>
       <c r="F6">
-        <v>-0.02727411482936112</v>
+        <v>0.03224839312600378</v>
       </c>
       <c r="G6">
-        <v>-0.001611595907215351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008699056730867467</v>
+      </c>
+      <c r="H6">
+        <v>0.06052982845504678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02167884876232353</v>
+        <v>-0.02391630278916544</v>
       </c>
       <c r="C7">
-        <v>-0.003306712861158858</v>
+        <v>0.001231593928058964</v>
       </c>
       <c r="D7">
-        <v>0.01373810042463312</v>
+        <v>-0.03003986822247212</v>
       </c>
       <c r="E7">
-        <v>-0.02971167237029232</v>
+        <v>0.04350654982685569</v>
       </c>
       <c r="F7">
-        <v>-0.04538234974955686</v>
+        <v>0.008954895644151613</v>
       </c>
       <c r="G7">
-        <v>0.06233043337389912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02163882843653267</v>
+      </c>
+      <c r="H7">
+        <v>0.03714665932126222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01893207160421012</v>
+        <v>-0.007975494946141973</v>
       </c>
       <c r="C8">
-        <v>-0.01137603943781591</v>
+        <v>-0.002684006827223221</v>
       </c>
       <c r="D8">
-        <v>0.004742994532883586</v>
+        <v>-0.01249767545872961</v>
       </c>
       <c r="E8">
-        <v>-0.03768766106792774</v>
+        <v>0.008058840860361554</v>
       </c>
       <c r="F8">
-        <v>-0.1003870353433719</v>
+        <v>0.02421520288773242</v>
       </c>
       <c r="G8">
-        <v>0.05568400857995617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0405083635910037</v>
+      </c>
+      <c r="H8">
+        <v>0.03997748085021587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03325052474160368</v>
+        <v>-0.03884756611414048</v>
       </c>
       <c r="C9">
-        <v>-0.01238291855081331</v>
+        <v>-0.000951106390012831</v>
       </c>
       <c r="D9">
-        <v>-0.005987421335545442</v>
+        <v>-0.039735893061104</v>
       </c>
       <c r="E9">
-        <v>-0.0366078811655915</v>
+        <v>0.01096020488703293</v>
       </c>
       <c r="F9">
-        <v>-0.08838006726486376</v>
+        <v>0.0320661058832248</v>
       </c>
       <c r="G9">
-        <v>0.06019717495017213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0415634829001592</v>
+      </c>
+      <c r="H9">
+        <v>0.05187253238600435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03321660086595735</v>
+        <v>-0.09569472236091157</v>
       </c>
       <c r="C10">
-        <v>0.07948621080682966</v>
+        <v>-0.01278814025213674</v>
       </c>
       <c r="D10">
-        <v>-0.0712641314103451</v>
+        <v>0.1695983028628683</v>
       </c>
       <c r="E10">
-        <v>0.1159613982747745</v>
+        <v>-0.00195297594517614</v>
       </c>
       <c r="F10">
-        <v>-0.04856384645186317</v>
+        <v>-0.03475248747052873</v>
       </c>
       <c r="G10">
-        <v>-0.008666157485352254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03537314490957862</v>
+      </c>
+      <c r="H10">
+        <v>0.009580660044448259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03310267837721729</v>
+        <v>-0.02502337807783075</v>
       </c>
       <c r="C11">
-        <v>-0.02258201154256621</v>
+        <v>-0.01122803876000676</v>
       </c>
       <c r="D11">
-        <v>0.01459280235065841</v>
+        <v>-0.04463973786477064</v>
       </c>
       <c r="E11">
-        <v>-0.02762116425576209</v>
+        <v>-0.0005720789970784173</v>
       </c>
       <c r="F11">
-        <v>-0.04561198436808969</v>
+        <v>0.01519981887903491</v>
       </c>
       <c r="G11">
-        <v>0.02338121312767822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02543984479943311</v>
+      </c>
+      <c r="H11">
+        <v>0.04651933569718485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04125616946186737</v>
+        <v>-0.02987907762193</v>
       </c>
       <c r="C12">
-        <v>-0.02504383969084471</v>
+        <v>-0.008062928431980143</v>
       </c>
       <c r="D12">
-        <v>0.006889908458200062</v>
+        <v>-0.04350619200638396</v>
       </c>
       <c r="E12">
-        <v>-0.03639355858220715</v>
+        <v>0.00852891829364668</v>
       </c>
       <c r="F12">
-        <v>-0.03173379697573205</v>
+        <v>0.01810698410329732</v>
       </c>
       <c r="G12">
-        <v>0.007773146709567699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006687812252395724</v>
+      </c>
+      <c r="H12">
+        <v>0.02071730246893529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01488317351585282</v>
+        <v>-0.03034439544620868</v>
       </c>
       <c r="C13">
-        <v>-0.0179110152083356</v>
+        <v>0.01239641612771417</v>
       </c>
       <c r="D13">
-        <v>-0.002346257686413647</v>
+        <v>-0.01438546223976264</v>
       </c>
       <c r="E13">
-        <v>0.005979052107626412</v>
+        <v>-0.008723606648009249</v>
       </c>
       <c r="F13">
-        <v>-0.077292510978756</v>
+        <v>0.02819768507808279</v>
       </c>
       <c r="G13">
-        <v>0.04138176907298376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06014895718502627</v>
+      </c>
+      <c r="H13">
+        <v>0.07283121411996693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01593392263846298</v>
+        <v>-0.01886680899166583</v>
       </c>
       <c r="C14">
-        <v>-0.001371104982310884</v>
+        <v>0.0003390916065320656</v>
       </c>
       <c r="D14">
-        <v>-0.006929718980049002</v>
+        <v>-0.00780234172265853</v>
       </c>
       <c r="E14">
-        <v>-0.03600665125366377</v>
+        <v>0.01482979764525574</v>
       </c>
       <c r="F14">
-        <v>-0.05590328344936679</v>
+        <v>0.01962082363965325</v>
       </c>
       <c r="G14">
-        <v>0.06494548967872174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03901423384208368</v>
+      </c>
+      <c r="H14">
+        <v>0.009177682002161435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02617868411236894</v>
+        <v>-0.02552029152918751</v>
       </c>
       <c r="C16">
-        <v>-0.02540424474816038</v>
+        <v>-0.01100021243389389</v>
       </c>
       <c r="D16">
-        <v>0.01169665148146115</v>
+        <v>-0.03791093717371259</v>
       </c>
       <c r="E16">
-        <v>-0.02242965240350371</v>
+        <v>0.002864703618830148</v>
       </c>
       <c r="F16">
-        <v>-0.05248285574555731</v>
+        <v>0.01979436292637438</v>
       </c>
       <c r="G16">
-        <v>0.02609144882416984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02089674251236102</v>
+      </c>
+      <c r="H16">
+        <v>0.03557294357278775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04561460135943528</v>
+        <v>-0.03760922112254041</v>
       </c>
       <c r="C19">
-        <v>-0.0160970504476675</v>
+        <v>-0.001268993105442535</v>
       </c>
       <c r="D19">
-        <v>0.01257127729367894</v>
+        <v>-0.02898921783678244</v>
       </c>
       <c r="E19">
-        <v>-0.03275658205209549</v>
+        <v>0.006365119781783718</v>
       </c>
       <c r="F19">
-        <v>-0.1094743937029872</v>
+        <v>0.03155402687687858</v>
       </c>
       <c r="G19">
-        <v>0.03048313715421674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05977847670952785</v>
+      </c>
+      <c r="H19">
+        <v>0.07008936137939729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0009988252744661942</v>
+        <v>-0.01383833654509577</v>
       </c>
       <c r="C20">
-        <v>-0.0044556137864294</v>
+        <v>0.004413365164053662</v>
       </c>
       <c r="D20">
-        <v>-0.005045973537498311</v>
+        <v>-0.01816323229847232</v>
       </c>
       <c r="E20">
-        <v>-0.03073699031317929</v>
+        <v>0.006071416511839627</v>
       </c>
       <c r="F20">
-        <v>-0.07083300326138611</v>
+        <v>0.02368666319831398</v>
       </c>
       <c r="G20">
-        <v>0.06909336160817994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05001397460877156</v>
+      </c>
+      <c r="H20">
+        <v>0.02443134307216707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.006602858948061613</v>
+        <v>-0.01724224096463213</v>
       </c>
       <c r="C21">
-        <v>0.01494866342347264</v>
+        <v>0.007033098116497757</v>
       </c>
       <c r="D21">
-        <v>0.02158462373296018</v>
+        <v>-0.01617725673682851</v>
       </c>
       <c r="E21">
-        <v>-0.02954652804787447</v>
+        <v>0.02033109176894215</v>
       </c>
       <c r="F21">
-        <v>-0.04959490006681007</v>
+        <v>0.0137632814445748</v>
       </c>
       <c r="G21">
-        <v>0.02326146712878986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04852580314592832</v>
+      </c>
+      <c r="H21">
+        <v>0.04522438408050718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02922760033572705</v>
+        <v>-0.02220341526063839</v>
       </c>
       <c r="C24">
-        <v>-0.0231271021544311</v>
+        <v>-0.005299839751971573</v>
       </c>
       <c r="D24">
-        <v>0.0002593777415646616</v>
+        <v>-0.03903370112794653</v>
       </c>
       <c r="E24">
-        <v>-0.009915871183647807</v>
+        <v>0.00102462769200865</v>
       </c>
       <c r="F24">
-        <v>-0.04500425639002233</v>
+        <v>0.01445470718193847</v>
       </c>
       <c r="G24">
-        <v>0.02398292108799092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01648947565264472</v>
+      </c>
+      <c r="H24">
+        <v>0.04454243620233721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02959066795620634</v>
+        <v>-0.03322529163242217</v>
       </c>
       <c r="C25">
-        <v>-0.01436519479443442</v>
+        <v>-0.003273637555910197</v>
       </c>
       <c r="D25">
-        <v>0.0149726225298295</v>
+        <v>-0.03861271570532753</v>
       </c>
       <c r="E25">
-        <v>-0.02872420366784343</v>
+        <v>0.005090455621112895</v>
       </c>
       <c r="F25">
-        <v>-0.05158256237329603</v>
+        <v>0.0216690287506039</v>
       </c>
       <c r="G25">
-        <v>0.01020021406881633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02046047730187446</v>
+      </c>
+      <c r="H25">
+        <v>0.04356100730123196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02200163911517852</v>
+        <v>-0.01970229172420713</v>
       </c>
       <c r="C26">
-        <v>-0.008891995965908511</v>
+        <v>0.017579646617737</v>
       </c>
       <c r="D26">
-        <v>0.02707596543240738</v>
+        <v>-0.005645121356700126</v>
       </c>
       <c r="E26">
-        <v>-0.004377113403189283</v>
+        <v>-0.0005374085024094696</v>
       </c>
       <c r="F26">
-        <v>-0.06724471407839923</v>
+        <v>0.005021837009749964</v>
       </c>
       <c r="G26">
-        <v>0.04801504455110064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03329709873342714</v>
+      </c>
+      <c r="H26">
+        <v>0.02199082864478807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06076961924627928</v>
+        <v>-0.02404969012288705</v>
       </c>
       <c r="C27">
-        <v>-0.02072530669454506</v>
+        <v>-0.008784879802477384</v>
       </c>
       <c r="D27">
-        <v>-0.02708988766476139</v>
+        <v>-0.01366106205335165</v>
       </c>
       <c r="E27">
-        <v>-0.03914814500373857</v>
+        <v>0.00420807492911219</v>
       </c>
       <c r="F27">
-        <v>-0.05613585530175267</v>
+        <v>0.01484814201005298</v>
       </c>
       <c r="G27">
-        <v>0.04415106003936221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01260365751869056</v>
+      </c>
+      <c r="H27">
+        <v>-0.001154735601542654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05104458884410189</v>
+        <v>-0.1402132925238954</v>
       </c>
       <c r="C28">
-        <v>0.09796381070969377</v>
+        <v>-0.006786031601681148</v>
       </c>
       <c r="D28">
-        <v>-0.1061843880062238</v>
+        <v>0.230686221774752</v>
       </c>
       <c r="E28">
-        <v>0.1483991247785834</v>
+        <v>0.00335423830926091</v>
       </c>
       <c r="F28">
-        <v>-0.0446908967644828</v>
+        <v>-0.03288498661519133</v>
       </c>
       <c r="G28">
-        <v>0.01951134121767943</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02453502218818379</v>
+      </c>
+      <c r="H28">
+        <v>-0.00160029478690718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02101925370899108</v>
+        <v>-0.02235096389448482</v>
       </c>
       <c r="C29">
-        <v>0.00143173034556719</v>
+        <v>-0.00110656992811761</v>
       </c>
       <c r="D29">
-        <v>-0.007871903466728496</v>
+        <v>-0.007831249966700947</v>
       </c>
       <c r="E29">
-        <v>-0.04992403384777029</v>
+        <v>0.01524657842469337</v>
       </c>
       <c r="F29">
-        <v>-0.04918177917874344</v>
+        <v>0.02068674331747173</v>
       </c>
       <c r="G29">
-        <v>0.05597293097030143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03723815852133143</v>
+      </c>
+      <c r="H29">
+        <v>0.001450785964049608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08712357046167983</v>
+        <v>-0.05929363221697292</v>
       </c>
       <c r="C30">
-        <v>-0.05256823968454761</v>
+        <v>-0.0005697249884258619</v>
       </c>
       <c r="D30">
-        <v>0.0004646623614414258</v>
+        <v>-0.08602971337655954</v>
       </c>
       <c r="E30">
-        <v>-0.06688737106541932</v>
+        <v>-0.03008340220392008</v>
       </c>
       <c r="F30">
-        <v>-0.09600219445730809</v>
+        <v>0.05901613414501922</v>
       </c>
       <c r="G30">
-        <v>0.05749074817769944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05155705026061686</v>
+      </c>
+      <c r="H30">
+        <v>0.07112755840095196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05767511566248733</v>
+        <v>-0.05340620147010884</v>
       </c>
       <c r="C31">
-        <v>-0.03059187142199503</v>
+        <v>-0.0128115334569978</v>
       </c>
       <c r="D31">
-        <v>0.01069295304400969</v>
+        <v>-0.01752296997319534</v>
       </c>
       <c r="E31">
-        <v>-0.00396774707504174</v>
+        <v>-0.005198977138249719</v>
       </c>
       <c r="F31">
-        <v>-0.04284012888165217</v>
+        <v>0.00942764516598218</v>
       </c>
       <c r="G31">
-        <v>0.06644775746224892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01435521093984292</v>
+      </c>
+      <c r="H31">
+        <v>0.003477370342694019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01755238249492538</v>
+        <v>-0.01113433522700124</v>
       </c>
       <c r="C32">
-        <v>-0.01071941800105138</v>
+        <v>-0.01328790548863324</v>
       </c>
       <c r="D32">
-        <v>0.01780990991426515</v>
+        <v>-0.008276439333781409</v>
       </c>
       <c r="E32">
-        <v>-0.07476533300364292</v>
+        <v>0.03077835572583801</v>
       </c>
       <c r="F32">
-        <v>-0.07945044493434678</v>
+        <v>0.04242525313149682</v>
       </c>
       <c r="G32">
-        <v>0.05739341761207931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02486536056965227</v>
+      </c>
+      <c r="H32">
+        <v>0.05522909045777177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04605508498856724</v>
+        <v>-0.04222947474232367</v>
       </c>
       <c r="C33">
-        <v>-0.02398854574114483</v>
+        <v>-0.00291146826267023</v>
       </c>
       <c r="D33">
-        <v>0.04111293168909187</v>
+        <v>-0.03512796560804572</v>
       </c>
       <c r="E33">
-        <v>-0.02902011446095179</v>
+        <v>-0.02209365603967039</v>
       </c>
       <c r="F33">
-        <v>-0.08398698333235102</v>
+        <v>0.008934572734406432</v>
       </c>
       <c r="G33">
-        <v>0.06683120954775773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04598005266221777</v>
+      </c>
+      <c r="H33">
+        <v>0.04224351811749312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0284221948197972</v>
+        <v>-0.02834324219492627</v>
       </c>
       <c r="C34">
-        <v>-0.0258412506857278</v>
+        <v>-0.01864217816879015</v>
       </c>
       <c r="D34">
-        <v>0.009146388282960402</v>
+        <v>-0.03783976520970458</v>
       </c>
       <c r="E34">
-        <v>-0.02960816693020534</v>
+        <v>0.009265573124618631</v>
       </c>
       <c r="F34">
-        <v>-0.0552181076570701</v>
+        <v>0.02072346307807916</v>
       </c>
       <c r="G34">
-        <v>0.01652731460394639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01605429311917828</v>
+      </c>
+      <c r="H34">
+        <v>0.03605695991963666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01442635550380607</v>
+        <v>-0.02053683253325206</v>
       </c>
       <c r="C36">
-        <v>-0.0003043249111054087</v>
+        <v>0.004827876082247858</v>
       </c>
       <c r="D36">
-        <v>-0.0005667765882701399</v>
+        <v>-0.001145214399613133</v>
       </c>
       <c r="E36">
-        <v>-0.02608710670593527</v>
+        <v>0.007386285009207829</v>
       </c>
       <c r="F36">
-        <v>-0.03410504045767015</v>
+        <v>0.007047886892887725</v>
       </c>
       <c r="G36">
-        <v>0.04052525610227585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01770197725809585</v>
+      </c>
+      <c r="H36">
+        <v>0.01182260203045338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001131068162474837</v>
+        <v>-0.02829699705374601</v>
       </c>
       <c r="C38">
-        <v>0.01643529647310259</v>
+        <v>-0.017525444163347</v>
       </c>
       <c r="D38">
-        <v>0.01518293571199641</v>
+        <v>-0.01057784301737952</v>
       </c>
       <c r="E38">
-        <v>0.02257906061231703</v>
+        <v>0.00045022608092476</v>
       </c>
       <c r="F38">
-        <v>-0.03284352662954528</v>
+        <v>0.01437860293492212</v>
       </c>
       <c r="G38">
-        <v>0.006493598938598175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02109755194984188</v>
+      </c>
+      <c r="H38">
+        <v>0.04229873062702069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03589816840122581</v>
+        <v>-0.02436734396029491</v>
       </c>
       <c r="C39">
-        <v>-0.04652703542178752</v>
+        <v>-0.007109923516648272</v>
       </c>
       <c r="D39">
-        <v>0.01433973584752215</v>
+        <v>-0.08615151699656243</v>
       </c>
       <c r="E39">
-        <v>-0.03181021512117087</v>
+        <v>-0.003151836655261974</v>
       </c>
       <c r="F39">
-        <v>-0.06643459604503693</v>
+        <v>0.02663780754874625</v>
       </c>
       <c r="G39">
-        <v>0.02993826280424598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03744535023611142</v>
+      </c>
+      <c r="H39">
+        <v>0.0723521574678552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03225130965190746</v>
+        <v>-0.03315263274796944</v>
       </c>
       <c r="C40">
-        <v>-0.06578145897238774</v>
+        <v>-0.002046407596050137</v>
       </c>
       <c r="D40">
-        <v>-0.00279010972143499</v>
+        <v>-0.02660662879983185</v>
       </c>
       <c r="E40">
-        <v>0.01382859463025004</v>
+        <v>-0.02270986531872044</v>
       </c>
       <c r="F40">
-        <v>-0.0777756972760385</v>
+        <v>0.03731577705513044</v>
       </c>
       <c r="G40">
-        <v>0.05535908820766348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02190791571164508</v>
+      </c>
+      <c r="H40">
+        <v>0.06815455083857846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002729684305906288</v>
+        <v>-0.01101257428893634</v>
       </c>
       <c r="C41">
-        <v>0.003044777120521929</v>
+        <v>0.001920227151272592</v>
       </c>
       <c r="D41">
-        <v>0.007104740820469053</v>
+        <v>0.01623489512763225</v>
       </c>
       <c r="E41">
-        <v>-0.004780773054895782</v>
+        <v>-0.001720111283351446</v>
       </c>
       <c r="F41">
-        <v>-0.01027621012771947</v>
+        <v>-0.001714740907887417</v>
       </c>
       <c r="G41">
-        <v>0.05144325759419771</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.004378717660320114</v>
+      </c>
+      <c r="H41">
+        <v>-0.006632355596014964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3887480930855308</v>
+        <v>-0.1961391747492946</v>
       </c>
       <c r="C42">
-        <v>0.3536574482452325</v>
+        <v>0.06221091720522047</v>
       </c>
       <c r="D42">
-        <v>0.7130466704685187</v>
+        <v>-0.2610015309137676</v>
       </c>
       <c r="E42">
-        <v>0.2582794732558198</v>
+        <v>-0.1934279731946013</v>
       </c>
       <c r="F42">
-        <v>0.2978569850210341</v>
+        <v>-0.9102694367734273</v>
       </c>
       <c r="G42">
-        <v>0.1471709844340759</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.07298700889989015</v>
+      </c>
+      <c r="H42">
+        <v>-0.008040343269112959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0001546858885279379</v>
+        <v>-0.01337980732458479</v>
       </c>
       <c r="C43">
-        <v>0.006628207882146789</v>
+        <v>0.002385469315081097</v>
       </c>
       <c r="D43">
-        <v>0.01275007620691638</v>
+        <v>0.01720852766137557</v>
       </c>
       <c r="E43">
-        <v>-0.004693042381752294</v>
+        <v>-0.004593125880873061</v>
       </c>
       <c r="F43">
-        <v>-0.02708669272384909</v>
+        <v>-0.005787408184957704</v>
       </c>
       <c r="G43">
-        <v>0.05015578112125258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005567263901321765</v>
+      </c>
+      <c r="H43">
+        <v>0.006226437314008675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01601829926636869</v>
+        <v>-0.02067681901527572</v>
       </c>
       <c r="C44">
-        <v>0.0130370164719816</v>
+        <v>-0.004802103389197415</v>
       </c>
       <c r="D44">
-        <v>0.01278116791094081</v>
+        <v>-0.03076611149513491</v>
       </c>
       <c r="E44">
-        <v>-0.009047698362754365</v>
+        <v>0.007332058074796628</v>
       </c>
       <c r="F44">
-        <v>-0.1065609528839198</v>
+        <v>0.006734452742510868</v>
       </c>
       <c r="G44">
-        <v>0.09214150464068313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04071976742690409</v>
+      </c>
+      <c r="H44">
+        <v>0.06511602198790876</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02114744719363523</v>
+        <v>-0.01750576713424243</v>
       </c>
       <c r="C46">
-        <v>-0.01264114195794126</v>
+        <v>0.004365945373415734</v>
       </c>
       <c r="D46">
-        <v>0.02141346893723075</v>
+        <v>-0.01055501167003949</v>
       </c>
       <c r="E46">
-        <v>-0.04166668743854322</v>
+        <v>0.001466876411198761</v>
       </c>
       <c r="F46">
-        <v>-0.06396439892835391</v>
+        <v>0.01633471884889992</v>
       </c>
       <c r="G46">
-        <v>0.06795458652291136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04293442660444883</v>
+      </c>
+      <c r="H46">
+        <v>0.005306105437421417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09566007767136184</v>
+        <v>-0.07736443020679525</v>
       </c>
       <c r="C47">
-        <v>-0.03645886906609853</v>
+        <v>-0.02970716842298556</v>
       </c>
       <c r="D47">
-        <v>-0.00484945465857885</v>
+        <v>-0.04092696061874267</v>
       </c>
       <c r="E47">
-        <v>-0.02687870474786844</v>
+        <v>-0.0008204124537959984</v>
       </c>
       <c r="F47">
-        <v>-0.02479020406395734</v>
+        <v>0.01757432295106055</v>
       </c>
       <c r="G47">
-        <v>0.08651065608630447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01424963210601017</v>
+      </c>
+      <c r="H47">
+        <v>-0.02154153952134136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0161044885673779</v>
+        <v>-0.02299716282612069</v>
       </c>
       <c r="C48">
-        <v>-0.007233731893748156</v>
+        <v>-0.006249189333964314</v>
       </c>
       <c r="D48">
-        <v>0.01535800001759218</v>
+        <v>-0.007679893694815269</v>
       </c>
       <c r="E48">
-        <v>-0.0189230844097621</v>
+        <v>0.001356262746051367</v>
       </c>
       <c r="F48">
-        <v>-0.0481837601263084</v>
+        <v>0.01053253564735869</v>
       </c>
       <c r="G48">
-        <v>0.02929186969845796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02393521103880459</v>
+      </c>
+      <c r="H48">
+        <v>0.01860630465799261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08575172330986978</v>
+        <v>-0.07327805399019792</v>
       </c>
       <c r="C50">
-        <v>-0.03852384974934028</v>
+        <v>-0.02616566791624934</v>
       </c>
       <c r="D50">
-        <v>0.01960860453668524</v>
+        <v>-0.03983578621503486</v>
       </c>
       <c r="E50">
-        <v>-0.02914645417658624</v>
+        <v>0.01260385049676052</v>
       </c>
       <c r="F50">
-        <v>-0.05514885681251478</v>
+        <v>0.0137512412148295</v>
       </c>
       <c r="G50">
-        <v>0.04789009541584321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.00549433610292612</v>
+      </c>
+      <c r="H50">
+        <v>-0.005802019382796932</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01707146122610205</v>
+        <v>-0.02055222717523367</v>
       </c>
       <c r="C51">
-        <v>0.0232863031786327</v>
+        <v>0.001364615308162236</v>
       </c>
       <c r="D51">
-        <v>0.005868579134178607</v>
+        <v>0.0001318262126494184</v>
       </c>
       <c r="E51">
-        <v>0.007319859538736772</v>
+        <v>0.008652489295026225</v>
       </c>
       <c r="F51">
-        <v>-0.1070991381726045</v>
+        <v>-0.0002980780520118191</v>
       </c>
       <c r="G51">
-        <v>0.05459347419967288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0543039345678677</v>
+      </c>
+      <c r="H51">
+        <v>0.05804481501226896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09703298984933913</v>
+        <v>-0.09464303228779292</v>
       </c>
       <c r="C53">
-        <v>-0.05794351007680323</v>
+        <v>-0.03741427689174213</v>
       </c>
       <c r="D53">
-        <v>0.002605353075679639</v>
+        <v>-0.07386394433573899</v>
       </c>
       <c r="E53">
-        <v>-0.04154680679012842</v>
+        <v>0.0006469175119913715</v>
       </c>
       <c r="F53">
-        <v>0.04066782806132998</v>
+        <v>0.03396621986908588</v>
       </c>
       <c r="G53">
-        <v>0.02261801911493852</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0576334495535487</v>
+      </c>
+      <c r="H53">
+        <v>-0.04365674357232563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02018991473457637</v>
+        <v>-0.02593299993749729</v>
       </c>
       <c r="C54">
-        <v>-0.003530085780245064</v>
+        <v>-0.009604560321251126</v>
       </c>
       <c r="D54">
-        <v>-0.01443962899094076</v>
+        <v>0.01122079972142151</v>
       </c>
       <c r="E54">
-        <v>-0.03756306219389671</v>
+        <v>0.009405153072453798</v>
       </c>
       <c r="F54">
-        <v>-0.04504184066569394</v>
+        <v>0.01251323977535877</v>
       </c>
       <c r="G54">
-        <v>0.07323754988630221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03806715594113569</v>
+      </c>
+      <c r="H54">
+        <v>-0.003202206326291306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1045920299545155</v>
+        <v>-0.0798874699888029</v>
       </c>
       <c r="C55">
-        <v>-0.03109304841460605</v>
+        <v>-0.03317802167752841</v>
       </c>
       <c r="D55">
-        <v>-0.0140309134239785</v>
+        <v>-0.07006860868303802</v>
       </c>
       <c r="E55">
-        <v>-0.06813009353197479</v>
+        <v>0.00856634110911276</v>
       </c>
       <c r="F55">
-        <v>0.03288260461519517</v>
+        <v>0.02820331140472724</v>
       </c>
       <c r="G55">
-        <v>0.06291484334848005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03237568369136953</v>
+      </c>
+      <c r="H55">
+        <v>-0.05491002476653042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1372397028248418</v>
+        <v>-0.1290479947854745</v>
       </c>
       <c r="C56">
-        <v>-0.08056793217539976</v>
+        <v>-0.05560489353500283</v>
       </c>
       <c r="D56">
-        <v>-0.03405203334380326</v>
+        <v>-0.087508263277426</v>
       </c>
       <c r="E56">
-        <v>-0.05858834979390158</v>
+        <v>-0.0006429325188375585</v>
       </c>
       <c r="F56">
-        <v>0.07295337245366502</v>
+        <v>0.05265196602925787</v>
       </c>
       <c r="G56">
-        <v>-0.04001315755967521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09370422325833924</v>
+      </c>
+      <c r="H56">
+        <v>-0.06026225460089852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04554640641403324</v>
+        <v>-0.04321941565363395</v>
       </c>
       <c r="C57">
-        <v>-0.007172482383334499</v>
+        <v>0.007956351431551574</v>
       </c>
       <c r="D57">
-        <v>0.01556458312305214</v>
+        <v>-0.04211398721659164</v>
       </c>
       <c r="E57">
-        <v>0.01955537963819217</v>
+        <v>-0.006740016811687918</v>
       </c>
       <c r="F57">
-        <v>-0.06663577475242684</v>
+        <v>0.0249156099791062</v>
       </c>
       <c r="G57">
-        <v>0.06996561814104925</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06008408489105206</v>
+      </c>
+      <c r="H57">
+        <v>0.04338428128770033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2277796069332579</v>
+        <v>-0.1647371485765836</v>
       </c>
       <c r="C58">
-        <v>-0.08224814847873479</v>
+        <v>-0.05345844406532808</v>
       </c>
       <c r="D58">
-        <v>0.07119043607080473</v>
+        <v>-0.1592228956082465</v>
       </c>
       <c r="E58">
-        <v>-0.100104498639072</v>
+        <v>-0.1661362663017381</v>
       </c>
       <c r="F58">
-        <v>-0.4001177851867124</v>
+        <v>0.04055428486934619</v>
       </c>
       <c r="G58">
-        <v>0.1337368759823384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8046853022533975</v>
+      </c>
+      <c r="H58">
+        <v>-0.4197547753816266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0504044841803535</v>
+        <v>-0.1537752432503925</v>
       </c>
       <c r="C59">
-        <v>0.05301051040378065</v>
+        <v>-0.01616583310710229</v>
       </c>
       <c r="D59">
-        <v>-0.1099952013890359</v>
+        <v>0.2306660739937023</v>
       </c>
       <c r="E59">
-        <v>0.1440249392211999</v>
+        <v>-0.01560951372293605</v>
       </c>
       <c r="F59">
-        <v>-0.06753583635775143</v>
+        <v>-0.008622863776051901</v>
       </c>
       <c r="G59">
-        <v>-0.01212763656421259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02801691052297671</v>
+      </c>
+      <c r="H59">
+        <v>0.03396871920010697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1586137180703902</v>
+        <v>-0.1818868033962998</v>
       </c>
       <c r="C60">
-        <v>-0.0541689250456617</v>
+        <v>-0.03269935149989234</v>
       </c>
       <c r="D60">
-        <v>0.04593357161609336</v>
+        <v>-0.02462697907243643</v>
       </c>
       <c r="E60">
-        <v>0.08942253376376119</v>
+        <v>-0.04756193021322493</v>
       </c>
       <c r="F60">
-        <v>-0.1722886982955265</v>
+        <v>0.05174650177399785</v>
       </c>
       <c r="G60">
-        <v>-0.3054300309059588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04052320297714141</v>
+      </c>
+      <c r="H60">
+        <v>0.369994024301726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02086315987028445</v>
+        <v>-0.02696868428321483</v>
       </c>
       <c r="C61">
-        <v>-0.0161142507742655</v>
+        <v>-0.01027791164250274</v>
       </c>
       <c r="D61">
-        <v>0.01241734896178488</v>
+        <v>-0.05157044000677236</v>
       </c>
       <c r="E61">
-        <v>-0.01700006077979233</v>
+        <v>0.004218698931290304</v>
       </c>
       <c r="F61">
-        <v>-0.03503946656428445</v>
+        <v>0.02513367200789425</v>
       </c>
       <c r="G61">
-        <v>0.01775009761800018</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02136942891601567</v>
+      </c>
+      <c r="H61">
+        <v>0.05640313633889009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01673655555444252</v>
+        <v>-0.01441422687928306</v>
       </c>
       <c r="C63">
-        <v>-0.006237719917522382</v>
+        <v>0.001362094012758423</v>
       </c>
       <c r="D63">
-        <v>0.01869604715270788</v>
+        <v>-0.0199773102492634</v>
       </c>
       <c r="E63">
-        <v>-0.03256502298136943</v>
+        <v>0.005259541228128103</v>
       </c>
       <c r="F63">
-        <v>-0.01875451050306731</v>
+        <v>0.01455519390711021</v>
       </c>
       <c r="G63">
-        <v>0.06694189722994015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01552205037157492</v>
+      </c>
+      <c r="H63">
+        <v>0.008623508393270101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03422792091379374</v>
+        <v>-0.04230348336759302</v>
       </c>
       <c r="C64">
-        <v>-0.003037682155247616</v>
+        <v>-0.01051829210531738</v>
       </c>
       <c r="D64">
-        <v>-0.007259618480248951</v>
+        <v>-0.03406934158062826</v>
       </c>
       <c r="E64">
-        <v>-0.05738029299221267</v>
+        <v>0.01138918141324223</v>
       </c>
       <c r="F64">
-        <v>-0.02816706140057892</v>
+        <v>0.00650226903668031</v>
       </c>
       <c r="G64">
-        <v>0.05282333415290433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0002297223573790763</v>
+      </c>
+      <c r="H64">
+        <v>0.03684592767615708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02395974388688769</v>
+        <v>-0.03616483060426481</v>
       </c>
       <c r="C65">
-        <v>-0.01364398902896437</v>
+        <v>0.0002208944334863253</v>
       </c>
       <c r="D65">
-        <v>0.008214225842758738</v>
+        <v>-0.06340068786123697</v>
       </c>
       <c r="E65">
-        <v>-0.01969416216990266</v>
+        <v>0.008336324371657496</v>
       </c>
       <c r="F65">
-        <v>-0.0228008762202062</v>
+        <v>0.03480813232577036</v>
       </c>
       <c r="G65">
-        <v>-0.007670881233255158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002528676052584204</v>
+      </c>
+      <c r="H65">
+        <v>0.06738567861530195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03319365187977644</v>
+        <v>-0.03245766438506138</v>
       </c>
       <c r="C66">
-        <v>-0.05446184508053568</v>
+        <v>-0.01332319255690208</v>
       </c>
       <c r="D66">
-        <v>0.01832158923231815</v>
+        <v>-0.1052253741952449</v>
       </c>
       <c r="E66">
-        <v>-0.03180182366331093</v>
+        <v>-0.005013430569245148</v>
       </c>
       <c r="F66">
-        <v>-0.05306407037370972</v>
+        <v>0.04563537946925827</v>
       </c>
       <c r="G66">
-        <v>0.01627293246228167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03038349189588618</v>
+      </c>
+      <c r="H66">
+        <v>0.07784942012740875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01122470560507175</v>
+        <v>-0.04774453127599568</v>
       </c>
       <c r="C67">
-        <v>0.003957709875651623</v>
+        <v>-0.01995218554325288</v>
       </c>
       <c r="D67">
-        <v>0.01159595225046597</v>
+        <v>-0.01009105257203889</v>
       </c>
       <c r="E67">
-        <v>0.03695263842874832</v>
+        <v>-0.004046419398916513</v>
       </c>
       <c r="F67">
-        <v>-0.02024921274925759</v>
+        <v>0.02238089825605958</v>
       </c>
       <c r="G67">
-        <v>-0.005831637831151195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.006749885454143652</v>
+      </c>
+      <c r="H67">
+        <v>0.04258744389811933</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06862197771010063</v>
+        <v>-0.1456302537685394</v>
       </c>
       <c r="C68">
-        <v>0.07951811103974388</v>
+        <v>0.006962036808050447</v>
       </c>
       <c r="D68">
-        <v>-0.1346541693935705</v>
+        <v>0.2393270276666153</v>
       </c>
       <c r="E68">
-        <v>0.1343429795490372</v>
+        <v>-0.009781781041097816</v>
       </c>
       <c r="F68">
-        <v>-0.06081716897600752</v>
+        <v>-0.03956415743852844</v>
       </c>
       <c r="G68">
-        <v>-0.04929859989890612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03594288476392093</v>
+      </c>
+      <c r="H68">
+        <v>-0.03835860170429368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06844816883790796</v>
+        <v>-0.06241325904879193</v>
       </c>
       <c r="C69">
-        <v>-0.04336311511409482</v>
+        <v>-0.02931962323301617</v>
       </c>
       <c r="D69">
-        <v>-0.009275236569092918</v>
+        <v>-0.03926777043208841</v>
       </c>
       <c r="E69">
-        <v>-0.0124153731340216</v>
+        <v>-0.001889153844081234</v>
       </c>
       <c r="F69">
-        <v>-0.01483393364845055</v>
+        <v>0.02794225571999919</v>
       </c>
       <c r="G69">
-        <v>0.08157174328732444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01910785736314079</v>
+      </c>
+      <c r="H69">
+        <v>0.005152724787320598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.073302336998826</v>
+        <v>-0.1402132978961362</v>
       </c>
       <c r="C71">
-        <v>0.09104462496586878</v>
+        <v>-0.004285473370816516</v>
       </c>
       <c r="D71">
-        <v>-0.115792213069213</v>
+        <v>0.2062658417600391</v>
       </c>
       <c r="E71">
-        <v>0.1976071198312748</v>
+        <v>-0.01608071607064591</v>
       </c>
       <c r="F71">
-        <v>-0.05634527253753656</v>
+        <v>-0.04503231484319594</v>
       </c>
       <c r="G71">
-        <v>0.01623162521935501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0370959552166816</v>
+      </c>
+      <c r="H71">
+        <v>-0.01758241152744617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1134479958499049</v>
+        <v>-0.08323706223271138</v>
       </c>
       <c r="C72">
-        <v>-0.07029730703160994</v>
+        <v>-0.03986283836331415</v>
       </c>
       <c r="D72">
-        <v>-0.03204846860420479</v>
+        <v>-0.07515074119507145</v>
       </c>
       <c r="E72">
-        <v>-0.02145811847989302</v>
+        <v>-0.01389431167277353</v>
       </c>
       <c r="F72">
-        <v>-0.1313409534606016</v>
+        <v>0.07462620470342179</v>
       </c>
       <c r="G72">
-        <v>-0.08508603155394098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03125246358703112</v>
+      </c>
+      <c r="H72">
+        <v>0.1413819844690198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2355322848523793</v>
+        <v>-0.2485163733600991</v>
       </c>
       <c r="C73">
-        <v>-0.06925899441518336</v>
+        <v>-0.04566015305046721</v>
       </c>
       <c r="D73">
-        <v>0.0532207368289959</v>
+        <v>-0.08634630533577255</v>
       </c>
       <c r="E73">
-        <v>0.1981247815262158</v>
+        <v>-0.08247558437692863</v>
       </c>
       <c r="F73">
-        <v>-0.2568305642993063</v>
+        <v>0.05531436134292204</v>
       </c>
       <c r="G73">
-        <v>-0.4392417004190011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.05718637735185043</v>
+      </c>
+      <c r="H73">
+        <v>0.4897344355567944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1391896760243604</v>
+        <v>-0.1249252484026817</v>
       </c>
       <c r="C74">
-        <v>-0.03446914225070977</v>
+        <v>-0.05434146726221409</v>
       </c>
       <c r="D74">
-        <v>-0.02002236489655406</v>
+        <v>-0.09691342069206407</v>
       </c>
       <c r="E74">
-        <v>-0.03444637957323969</v>
+        <v>0.00147815933720156</v>
       </c>
       <c r="F74">
-        <v>0.06797724168638151</v>
+        <v>0.03942978476907988</v>
       </c>
       <c r="G74">
-        <v>-0.02834375381508576</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07754478366555941</v>
+      </c>
+      <c r="H74">
+        <v>-0.03222518238859573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2259284370795659</v>
+        <v>-0.2334425116909171</v>
       </c>
       <c r="C75">
-        <v>-0.1304281669140396</v>
+        <v>-0.101871298732157</v>
       </c>
       <c r="D75">
-        <v>-0.07094008732917395</v>
+        <v>-0.1486823644511542</v>
       </c>
       <c r="E75">
-        <v>-0.08788357073802779</v>
+        <v>-0.01722760863624355</v>
       </c>
       <c r="F75">
-        <v>0.09506539899725888</v>
+        <v>0.1030866622763352</v>
       </c>
       <c r="G75">
-        <v>-0.004641191726045307</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1587993340584732</v>
+      </c>
+      <c r="H75">
+        <v>-0.1352248011824879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2742510512356753</v>
+        <v>-0.2061013502185856</v>
       </c>
       <c r="C76">
-        <v>-0.121441650840305</v>
+        <v>-0.0944881678725326</v>
       </c>
       <c r="D76">
-        <v>-0.1263167401252355</v>
+        <v>-0.1387845270034329</v>
       </c>
       <c r="E76">
-        <v>-0.1313036230702849</v>
+        <v>0.03025564914584006</v>
       </c>
       <c r="F76">
-        <v>0.1506333373789637</v>
+        <v>0.0970471618629633</v>
       </c>
       <c r="G76">
-        <v>-0.02464336780009861</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1567271145174913</v>
+      </c>
+      <c r="H76">
+        <v>-0.1339790059817346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1281858216287965</v>
+        <v>-0.07697724044531211</v>
       </c>
       <c r="C77">
-        <v>-0.02325928531007081</v>
+        <v>-0.01328105351562066</v>
       </c>
       <c r="D77">
-        <v>0.09695411472001053</v>
+        <v>-0.06537842992883434</v>
       </c>
       <c r="E77">
-        <v>-0.05886386259257442</v>
+        <v>-0.008144289056404892</v>
       </c>
       <c r="F77">
-        <v>-0.1690866670969377</v>
+        <v>-0.004514495002685292</v>
       </c>
       <c r="G77">
-        <v>0.2064965857467154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08970769675479799</v>
+      </c>
+      <c r="H77">
+        <v>0.008958584530819196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07447193022878378</v>
+        <v>-0.04659963268046016</v>
       </c>
       <c r="C78">
-        <v>-0.03954526605536352</v>
+        <v>-0.01425049609901359</v>
       </c>
       <c r="D78">
-        <v>0.04179854411831213</v>
+        <v>-0.05871161722363117</v>
       </c>
       <c r="E78">
-        <v>-0.07800871420794184</v>
+        <v>0.004250072422067485</v>
       </c>
       <c r="F78">
-        <v>-0.1060551036102654</v>
+        <v>0.03177832460564797</v>
       </c>
       <c r="G78">
-        <v>0.03598446851435061</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06015400824625097</v>
+      </c>
+      <c r="H78">
+        <v>0.07205851277812493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1606486559203388</v>
+        <v>-0.1443790357112727</v>
       </c>
       <c r="C80">
-        <v>0.7590258495481452</v>
+        <v>-0.03594610469751749</v>
       </c>
       <c r="D80">
-        <v>-0.1896964782829473</v>
+        <v>-0.0617120146753927</v>
       </c>
       <c r="E80">
-        <v>-0.5479769638945297</v>
+        <v>0.9501902898775336</v>
       </c>
       <c r="F80">
-        <v>-0.05952227872893603</v>
+        <v>-0.1749740719343471</v>
       </c>
       <c r="G80">
-        <v>-0.17057404482535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1315113410156594</v>
+      </c>
+      <c r="H80">
+        <v>-0.003184600514113805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1706281701675219</v>
+        <v>-0.1543801814970865</v>
       </c>
       <c r="C81">
-        <v>-0.09346518341442718</v>
+        <v>-0.06597798093805922</v>
       </c>
       <c r="D81">
-        <v>-0.0826789365308504</v>
+        <v>-0.09147405573702966</v>
       </c>
       <c r="E81">
-        <v>-0.06556017660556847</v>
+        <v>0.005982512387776109</v>
       </c>
       <c r="F81">
-        <v>0.117296430458239</v>
+        <v>0.06588811001430663</v>
       </c>
       <c r="G81">
-        <v>-0.0452985448541571</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1075292737820328</v>
+      </c>
+      <c r="H81">
+        <v>-0.08779332112234203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03943341859507834</v>
+        <v>-0.03561516636344568</v>
       </c>
       <c r="C83">
-        <v>-0.01848105862611108</v>
+        <v>-0.007216079560360378</v>
       </c>
       <c r="D83">
-        <v>0.03030894879136599</v>
+        <v>-0.02221339022645604</v>
       </c>
       <c r="E83">
-        <v>-0.008844285950273187</v>
+        <v>-0.006349589663778086</v>
       </c>
       <c r="F83">
-        <v>-0.05310289029475876</v>
+        <v>0.01520762795589201</v>
       </c>
       <c r="G83">
-        <v>0.03932624099824359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04567648229440529</v>
+      </c>
+      <c r="H83">
+        <v>0.03736978153268778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2505374973823553</v>
+        <v>-0.2246247035094787</v>
       </c>
       <c r="C85">
-        <v>-0.1165098043404979</v>
+        <v>-0.08656351929287762</v>
       </c>
       <c r="D85">
-        <v>-0.0846588706449615</v>
+        <v>-0.1512581769561335</v>
       </c>
       <c r="E85">
-        <v>-0.09961679553151585</v>
+        <v>-0.01064249565086029</v>
       </c>
       <c r="F85">
-        <v>0.09787205300272143</v>
+        <v>0.08793762790574715</v>
       </c>
       <c r="G85">
-        <v>0.02876916107036921</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1692039941585</v>
+      </c>
+      <c r="H85">
+        <v>-0.09725669086319974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00648401725576174</v>
+        <v>-0.02793741519676082</v>
       </c>
       <c r="C86">
-        <v>0.0005935100466637889</v>
+        <v>-0.003122599581573279</v>
       </c>
       <c r="D86">
-        <v>0.03185097289189553</v>
+        <v>-0.02869733200134302</v>
       </c>
       <c r="E86">
-        <v>-0.04627075516885493</v>
+        <v>-0.003216995411415791</v>
       </c>
       <c r="F86">
-        <v>-0.06513765911544284</v>
+        <v>0.002155700280008291</v>
       </c>
       <c r="G86">
-        <v>0.02824142714817581</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07906029063656338</v>
+      </c>
+      <c r="H86">
+        <v>0.09342125837575505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03887490108930525</v>
+        <v>-0.03033168767055184</v>
       </c>
       <c r="C87">
-        <v>0.01189556606840769</v>
+        <v>-0.004388241075983951</v>
       </c>
       <c r="D87">
-        <v>0.01530393774860286</v>
+        <v>-0.04379660099618302</v>
       </c>
       <c r="E87">
-        <v>-0.02571333624745647</v>
+        <v>0.009002412734832092</v>
       </c>
       <c r="F87">
-        <v>-0.1106169881522858</v>
+        <v>0.01746634339502242</v>
       </c>
       <c r="G87">
-        <v>0.04670900350213961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08028722083286992</v>
+      </c>
+      <c r="H87">
+        <v>0.07604719553192944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00485757782178556</v>
+        <v>-0.03836677695749202</v>
       </c>
       <c r="C88">
-        <v>0.001941974813868567</v>
+        <v>0.01086974468704635</v>
       </c>
       <c r="D88">
-        <v>-0.01225407024543956</v>
+        <v>-0.01494141294264581</v>
       </c>
       <c r="E88">
-        <v>-0.00641215510841968</v>
+        <v>0.01010897879952677</v>
       </c>
       <c r="F88">
-        <v>-0.00139772059753937</v>
+        <v>0.0146833935640325</v>
       </c>
       <c r="G88">
-        <v>0.05080769405480385</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004051137736411566</v>
+      </c>
+      <c r="H88">
+        <v>0.0215589185532792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09172298633169541</v>
+        <v>-0.2374401766101403</v>
       </c>
       <c r="C89">
-        <v>0.1103304123957335</v>
+        <v>-0.003659461003546199</v>
       </c>
       <c r="D89">
-        <v>-0.1706524779220153</v>
+        <v>0.3661628457507907</v>
       </c>
       <c r="E89">
-        <v>0.2521669967976421</v>
+        <v>-0.02490401044863268</v>
       </c>
       <c r="F89">
-        <v>-0.09588273601163769</v>
+        <v>-0.03468681251445953</v>
       </c>
       <c r="G89">
-        <v>0.04160066711928457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001733669680156049</v>
+      </c>
+      <c r="H89">
+        <v>0.0112053487894567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08730352694202063</v>
+        <v>-0.1921677204983748</v>
       </c>
       <c r="C90">
-        <v>0.1603322584891571</v>
+        <v>-0.0020366984995391</v>
       </c>
       <c r="D90">
-        <v>-0.2134633840661445</v>
+        <v>0.323672618452095</v>
       </c>
       <c r="E90">
-        <v>0.2411816734409032</v>
+        <v>-0.01682337658273754</v>
       </c>
       <c r="F90">
-        <v>-0.04817632669357531</v>
+        <v>-0.0591552999145649</v>
       </c>
       <c r="G90">
-        <v>0.04039204667509066</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.007295523276681562</v>
+      </c>
+      <c r="H90">
+        <v>-0.04205691556835957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3054019271499069</v>
+        <v>-0.2363227902356972</v>
       </c>
       <c r="C91">
-        <v>-0.1510591938965089</v>
+        <v>-0.09983307223971404</v>
       </c>
       <c r="D91">
-        <v>-0.07885101975134862</v>
+        <v>-0.1321513186883846</v>
       </c>
       <c r="E91">
-        <v>-0.08240893880058678</v>
+        <v>-0.0165256818466133</v>
       </c>
       <c r="F91">
-        <v>0.2213195742627835</v>
+        <v>0.0859602004938383</v>
       </c>
       <c r="G91">
-        <v>-0.03675196373789102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1890675675137462</v>
+      </c>
+      <c r="H91">
+        <v>-0.1741179909863222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1711387362298433</v>
+        <v>-0.2432285464484851</v>
       </c>
       <c r="C92">
-        <v>0.1066732115575054</v>
+        <v>-0.0688045722485932</v>
       </c>
       <c r="D92">
-        <v>-0.3751975038733464</v>
+        <v>0.2580421008720505</v>
       </c>
       <c r="E92">
-        <v>0.2400727336777771</v>
+        <v>-0.006569060161051126</v>
       </c>
       <c r="F92">
-        <v>0.1374513659434018</v>
+        <v>0.006320639335130068</v>
       </c>
       <c r="G92">
-        <v>0.475759450003793</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.003096208464742563</v>
+      </c>
+      <c r="H92">
+        <v>-0.1387674515986442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09419069798776214</v>
+        <v>-0.2156732980521358</v>
       </c>
       <c r="C93">
-        <v>0.173539582486276</v>
+        <v>-0.01224543083676988</v>
       </c>
       <c r="D93">
-        <v>-0.2474262908814936</v>
+        <v>0.3383253765184853</v>
       </c>
       <c r="E93">
-        <v>0.34772820351088</v>
+        <v>-0.03758734085962336</v>
       </c>
       <c r="F93">
-        <v>-0.006074509255837854</v>
+        <v>-0.06228479294528232</v>
       </c>
       <c r="G93">
-        <v>-0.05147245278846013</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0008153067212243821</v>
+      </c>
+      <c r="H93">
+        <v>0.01201466674728426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.303093085630137</v>
+        <v>-0.2601973641827189</v>
       </c>
       <c r="C94">
-        <v>-0.1983222885450536</v>
+        <v>-0.08930012580324612</v>
       </c>
       <c r="D94">
-        <v>-0.1660512619334568</v>
+        <v>-0.1268593555608704</v>
       </c>
       <c r="E94">
-        <v>-0.1059691267906231</v>
+        <v>-0.03251009558143039</v>
       </c>
       <c r="F94">
-        <v>0.1885997097276447</v>
+        <v>0.1347630860591834</v>
       </c>
       <c r="G94">
-        <v>-0.06485316102659275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.183242543603557</v>
+      </c>
+      <c r="H94">
+        <v>-0.2129221950104202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05800541908446594</v>
+        <v>-0.06080863711800356</v>
       </c>
       <c r="C95">
-        <v>-0.0660013886944438</v>
+        <v>-0.03441380209549749</v>
       </c>
       <c r="D95">
-        <v>0.06707947878812767</v>
+        <v>-0.08649319845564857</v>
       </c>
       <c r="E95">
-        <v>-0.0601173048438232</v>
+        <v>-0.07848556586723118</v>
       </c>
       <c r="F95">
-        <v>0.003076061707535765</v>
+        <v>0.008176844167609849</v>
       </c>
       <c r="G95">
-        <v>0.1624457227236862</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04983684509851649</v>
+      </c>
+      <c r="H95">
+        <v>0.0427879905441803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1778878486325603</v>
+        <v>-0.1872678268805424</v>
       </c>
       <c r="C98">
-        <v>-0.01129810495683312</v>
+        <v>-0.06456764941560873</v>
       </c>
       <c r="D98">
-        <v>0.04653466534343656</v>
+        <v>-0.04089341065420901</v>
       </c>
       <c r="E98">
-        <v>0.1272196610385432</v>
+        <v>-0.04786769482853401</v>
       </c>
       <c r="F98">
-        <v>-0.1415632434752217</v>
+        <v>0.01938459888447136</v>
       </c>
       <c r="G98">
-        <v>-0.3647266974337346</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07727251421152131</v>
+      </c>
+      <c r="H98">
+        <v>0.3456284266436386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007476887204332825</v>
+        <v>-0.01614268706571646</v>
       </c>
       <c r="C101">
-        <v>-0.01053235924881439</v>
+        <v>0.0003050799686405966</v>
       </c>
       <c r="D101">
-        <v>0.0111049703648646</v>
+        <v>-0.01036486224671865</v>
       </c>
       <c r="E101">
-        <v>-0.09059932090415004</v>
+        <v>0.00765500365981882</v>
       </c>
       <c r="F101">
-        <v>-0.1649795238302482</v>
+        <v>0.02893128556349794</v>
       </c>
       <c r="G101">
-        <v>0.1806133704170287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1026744537567356</v>
+      </c>
+      <c r="H101">
+        <v>-0.0291189935497372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1144540751381884</v>
+        <v>-0.1078296156330465</v>
       </c>
       <c r="C102">
-        <v>-0.06682854555379367</v>
+        <v>-0.03422950611768352</v>
       </c>
       <c r="D102">
-        <v>-0.02168838222421487</v>
+        <v>-0.07323928073531115</v>
       </c>
       <c r="E102">
-        <v>-0.06452163099069629</v>
+        <v>-0.002756385294546769</v>
       </c>
       <c r="F102">
-        <v>0.09509157513263014</v>
+        <v>0.04486199512423955</v>
       </c>
       <c r="G102">
-        <v>-0.01150885346525118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0962041915360141</v>
+      </c>
+      <c r="H102">
+        <v>-0.06835891945725159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02252349586491726</v>
+        <v>-0.01758569141814495</v>
       </c>
       <c r="C103">
-        <v>-0.02184997562403688</v>
+        <v>-0.006562660160946962</v>
       </c>
       <c r="D103">
-        <v>0.003367098674440333</v>
+        <v>-0.01492073335387765</v>
       </c>
       <c r="E103">
-        <v>-0.02309833628940441</v>
+        <v>0.009569317738780947</v>
       </c>
       <c r="F103">
-        <v>-0.002333564956994648</v>
+        <v>0.008951139052365949</v>
       </c>
       <c r="G103">
-        <v>0.0158120139093063</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.000980517579547451</v>
+      </c>
+      <c r="H103">
+        <v>-0.01385903800223943</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2288566384454097</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.954429998762828</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.08181740324983897</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02257128219193864</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1321602159862789</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03512392544145881</v>
+      </c>
+      <c r="H104">
+        <v>-0.04861473450029415</v>
       </c>
     </row>
   </sheetData>
